--- a/template/excel_template_graph.xlsx
+++ b/template/excel_template_graph.xlsx
@@ -23,10 +23,62 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>Total Students</t>
+  </si>
+  <si>
+    <t>Student</t>
+  </si>
+  <si>
+    <t>CourseCode</t>
+  </si>
+  <si>
+    <t>Semester</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Sponsorship</t>
+  </si>
+  <si>
+    <t>GPASem1</t>
+  </si>
+  <si>
+    <t>GPASem2</t>
+  </si>
+  <si>
+    <t>GPASem3</t>
+  </si>
+  <si>
+    <t>GPASem4</t>
+  </si>
+  <si>
+    <t>CGPA</t>
+  </si>
+  <si>
+    <t>Status Risk</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -54,8 +106,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -336,12 +391,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:M1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>